--- a/docs/thesis/performance results.xlsx
+++ b/docs/thesis/performance results.xlsx
@@ -16746,7 +16746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:AF474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q308" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q287" workbookViewId="0">
       <selection activeCell="W375" sqref="W375"/>
     </sheetView>
   </sheetViews>
